--- a/cfs_3_0.25.xlsx
+++ b/cfs_3_0.25.xlsx
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>53.9</v>
+        <v>53</v>
       </c>
       <c r="R71" t="n">
         <v>51</v>
@@ -7845,7 +7845,7 @@
         <v>5</v>
       </c>
       <c r="W97" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X97" t="n">
         <v>3</v>
